--- a/data/trans_bre/LAWTONB_2R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/LAWTONB_2R2-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>12.30964991044673</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6.551483571968192</v>
+        <v>6.551483571968189</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2502540322716736</v>
@@ -649,7 +649,7 @@
         <v>1.233738320874552</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4708761795950335</v>
+        <v>0.4708761795950334</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.134200543221847</v>
+        <v>-1.642550882729544</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.5001549831259576</v>
+        <v>-0.4205011229743279</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.92497962024285</v>
+        <v>6.823980661721983</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.453408136947657</v>
+        <v>2.748263407808878</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1059594400255369</v>
+        <v>-0.09114267582861463</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.01852954429981537</v>
+        <v>-0.02398796407830269</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5625095571567362</v>
+        <v>0.5168483175390646</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1387586164823031</v>
+        <v>0.1739691425423819</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.034943117713969</v>
+        <v>9.8649031997224</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.90476455529314</v>
+        <v>12.05990373319537</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17.41442405367935</v>
+        <v>17.84049508240553</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.68741434500917</v>
+        <v>10.30080475854529</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6754645240093488</v>
+        <v>0.7742560529500199</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.020555693905566</v>
+        <v>1.039097830585505</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.182734916078171</v>
+        <v>2.385015159087887</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.8894332259858236</v>
+        <v>0.8746872517671274</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>12.9045872708305</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22.15223602573293</v>
+        <v>22.15223602573294</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2102394050865044</v>
@@ -749,7 +749,7 @@
         <v>0.3645037714805517</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.5698593951814644</v>
+        <v>0.5698593951814649</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03137827101768947</v>
+        <v>0.1498157706342889</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.546896532703904</v>
+        <v>4.337669403238797</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5.423005282774701</v>
+        <v>5.296712269137071</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16.5334534034609</v>
+        <v>16.10047348502798</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.00269104471501682</v>
+        <v>0.003167653917127194</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07474648645007528</v>
+        <v>0.1000858768346997</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1393539695449648</v>
+        <v>0.1351042722552966</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3903247733929026</v>
+        <v>0.3743549615541604</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.64944616192314</v>
+        <v>17.06795609106543</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>20.61901541437586</v>
+        <v>21.77808203560737</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>20.69908980765539</v>
+        <v>19.8346044620854</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>27.38166322206516</v>
+        <v>27.63904963705771</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5003706150711085</v>
+        <v>0.4904543121385826</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5512710950460128</v>
+        <v>0.6201979231969649</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6843997788756583</v>
+        <v>0.6359097974598155</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7816038582018067</v>
+        <v>0.7949173182847427</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>14.64440069641564</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16.57242299639235</v>
+        <v>16.57242299639234</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3068880892621381</v>
@@ -849,7 +849,7 @@
         <v>0.6964304525054755</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.6708109631574022</v>
+        <v>0.670810963157402</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.170112414865785</v>
+        <v>2.37961733636866</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.581180380218469</v>
+        <v>6.397002512840047</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9.483513192069291</v>
+        <v>9.573016331594342</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12.6177248624386</v>
+        <v>12.9834569833463</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1113237704341976</v>
+        <v>0.05963922947762816</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1743959820674451</v>
+        <v>0.2123008066586715</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3963501536034432</v>
+        <v>0.3970681092165685</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.4732342607613325</v>
+        <v>0.479311403376887</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.30415164703527</v>
+        <v>13.26058694070463</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>16.92579396760776</v>
+        <v>17.43310980304167</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19.65404603637325</v>
+        <v>19.09280780619015</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>20.18280087018178</v>
+        <v>20.4595417431754</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5596603399537435</v>
+        <v>0.5485644622402166</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7150969071644313</v>
+        <v>0.7417799111312757</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.04878948760351</v>
+        <v>1.025831856016652</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.8943415871491077</v>
+        <v>0.9069653863122153</v>
       </c>
     </row>
     <row r="13">
